--- a/Dataset/tutor_application.xlsx
+++ b/Dataset/tutor_application.xlsx
@@ -42,9 +42,6 @@
     <t>tutor_id</t>
   </si>
   <si>
-    <t>da xu ly</t>
-  </si>
-  <si>
     <t>chua xu ly</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Thanh thao cac cong cu va nen tang day hoc truc tuyen.</t>
+  </si>
+  <si>
+    <t>da mo lop</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
@@ -514,10 +514,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
         <v>3</v>
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6">
         <v>6</v>
@@ -560,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6">
         <v>7</v>

--- a/Dataset/tutor_application.xlsx
+++ b/Dataset/tutor_application.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ta_id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>da mo lop</t>
+  </si>
+  <si>
+    <t>da huy bo</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,10 +540,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
         <v>6</v>
@@ -552,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -560,26 +563,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E6" s="5"/>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
